--- a/src/excel/AntigenSupportingData- Ebola-508.xlsx
+++ b/src/excel/AntigenSupportingData- Ebola-508.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.59 - 508\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.63 - 508 - DRAFT\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C93C55C-6BE5-4499-ADFD-D5F93AE033D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16566FC2-08C2-4885-A2F7-ADCE5F66660F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,18 +482,9 @@
     <t>≥18 yrs - 4 days</t>
   </si>
   <si>
-    <t>Do not vaccinate if the patient has had a severe allergic reaction after a previous dose of ebola vaccine.</t>
-  </si>
-  <si>
-    <t>Where can I find the most recent ACIP recommendations for ebola?</t>
-  </si>
-  <si>
     <t>Do not vaccinate if the patient has had a severe allergic reaction to rice protein.</t>
   </si>
   <si>
-    <t>Severe allergic reaction after previous dose of ebola (123)</t>
-  </si>
-  <si>
     <t>Severe allergic reaction to rice protein (124)</t>
   </si>
   <si>
@@ -503,12 +494,6 @@
     <t>Ebola virus outbreak response (182)</t>
   </si>
   <si>
-    <t>Health care personnel at federally designated Ebola treatement center in U.S. (183)</t>
-  </si>
-  <si>
-    <t>Administer to persons working as health care personnel at federally designated Ebola treatement centers in the Unied States</t>
-  </si>
-  <si>
     <t>Administer to persons working as Laboratorians or other staff at biosafety level 4 facilities in U.S.</t>
   </si>
   <si>
@@ -600,6 +585,21 @@
   </si>
   <si>
     <t>Publication Date: 11/08/2024</t>
+  </si>
+  <si>
+    <t>Where can I find the most recent ACIP recommendations for Ebola?</t>
+  </si>
+  <si>
+    <t>Severe allergic reaction after previous dose of Ebola (123)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate if the patient has had a severe allergic reaction after a previous dose of Ebola vaccine.</t>
+  </si>
+  <si>
+    <t>Health care personnel at federally designated Ebola treatment center in U.S. (183)</t>
+  </si>
+  <si>
+    <t>Administer to persons working as health care personnel at federally designated Ebola treatment centers in the United States</t>
   </si>
 </sst>
 </file>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C18" s="120"/>
       <c r="D18" s="120"/>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C19" s="120"/>
       <c r="D19" s="120"/>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C20" s="120"/>
       <c r="D20" s="120"/>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C21" s="120"/>
       <c r="D21" s="120"/>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C22" s="120"/>
       <c r="D22" s="120"/>
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>131</v>
@@ -2530,7 +2530,7 @@
         <v>132</v>
       </c>
       <c r="E26" s="129" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F26" s="133">
         <v>1</v>
@@ -2546,21 +2546,21 @@
         <v>1</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D27" s="129" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E27" s="129"/>
       <c r="F27" s="133"/>
       <c r="G27" s="129" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H27" s="128" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I27" s="22"/>
     </row>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="30" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
@@ -2637,7 +2637,7 @@
         <v>4.59</v>
       </c>
       <c r="C1" s="148" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2668,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="146" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D3" s="146" t="s">
         <v>10</v>
@@ -2677,7 +2677,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="147" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -2716,16 +2716,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="139" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F7" s="139" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -2764,16 +2764,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D11" s="57" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F11" s="139" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -2863,13 +2863,13 @@
         <v>112</v>
       </c>
       <c r="B2" s="125" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="C2" s="126" t="s">
         <v>117</v>
       </c>
       <c r="D2" s="126" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E2" s="127" t="s">
         <v>10</v>
@@ -3026,10 +3026,10 @@
         <v>103</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="D3" s="75" t="s">
         <v>10</v>
@@ -3046,10 +3046,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D4" s="75" t="s">
         <v>10</v>
@@ -3136,7 +3136,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="34"/>
@@ -3326,10 +3326,10 @@
         <v>104</v>
       </c>
       <c r="B15" s="134" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" s="134" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D15" s="109" t="s">
         <v>122</v>
@@ -3346,10 +3346,10 @@
         <v>104</v>
       </c>
       <c r="B16" s="134" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C16" s="134" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="D16" s="109" t="s">
         <v>122</v>
@@ -3367,10 +3367,10 @@
         <v>104</v>
       </c>
       <c r="B17" s="134" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C17" s="134" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D17" s="109" t="s">
         <v>122</v>
@@ -3388,10 +3388,10 @@
         <v>104</v>
       </c>
       <c r="B18" s="142" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C18" s="142" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D18" s="61" t="s">
         <v>122</v>
@@ -3409,10 +3409,10 @@
         <v>104</v>
       </c>
       <c r="B19" s="142" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D19" s="61" t="s">
         <v>122</v>
@@ -3650,7 +3650,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="134" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C29" s="109" t="s">
         <v>122</v>
@@ -3691,7 +3691,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="134" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C31" s="109" t="s">
         <v>123</v>
